--- a/biology/Zoologie/Babouin_hamadryas/Babouin_hamadryas.xlsx
+++ b/biology/Zoologie/Babouin_hamadryas/Babouin_hamadryas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papio hamadryas · Hamadryas
 Le Babouin hamadryas ou Hamadryas (Papio hamadryas) est un babouin des régions arides qui se rencontre de part et d'autre de la mer Rouge et dans la corne de l'Afrique (Djibouti, Éthiopie, Érythrée, Somalie). Il a été probablement introduit dans la péninsule Arabique par les navigateurs yéménites.
@@ -488,7 +500,7 @@
 Le dimorphisme sexuel est marqué. Les mâles adultes pèsent une vingtaine de kilogrammes. Ils portent un manteau de longs poils clairs qui s'arrête au bassin. La face est glabre ; le museau est long et anguleux. Les mâchoires montrent des canines de 4 cm. Les femelles sont beaucoup plus petites (12 kg) ; leur poil est brun et court. Le babouin hamadryas mesure de 50 à 90 cm et sa queue mesure de 40 à 60 cm.
 Son alimentation est constituée de feuilles, de fruits, de racines, de graines, d'œufs, de petits vertébrés et même de scorpions.
 La maturité sexuelle survient vers l'âge de 4 ou 5 ans pour la femelle et de 5 à 7 ans pour le mâle. La gestation dure environ six mois et les femelles ont un petit environ tous les vingt-deux mois. La durée de vie dans la nature est estimée à une vingtaine d'années.
-Ces babouins vivent dans des harems (en) polygynes[1].
+Ces babouins vivent dans des harems (en) polygynes.
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Babouin hamadryas[2], Hamadryas[2],[3], Hamadryade[2], Cynocéphale hamadryade[2], Cynocéphale papion[2], Papion à perruque[2], Tartarin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Babouin hamadryas, Hamadryas Hamadryade, Cynocéphale hamadryade, Cynocéphale papion, Papion à perruque, Tartarin.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Découverte et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1758 par Carl von Linné sous le nom Simia hamadryas.
 </t>
